--- a/漫展信息/丽水-漫展信息.xlsx
+++ b/漫展信息/丽水-漫展信息.xlsx
@@ -506,12 +506,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>218</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+        <v>228</v>
+      </c>
+      <c r="G2" t="n">
+        <v>45</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -547,12 +545,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>231</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+        <v>237</v>
+      </c>
+      <c r="G3" t="n">
+        <v>45</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -912,12 +908,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>218</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+        <v>228</v>
+      </c>
+      <c r="G2" t="n">
+        <v>45</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -953,12 +947,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>231</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+        <v>237</v>
+      </c>
+      <c r="G3" t="n">
+        <v>45</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>

--- a/漫展信息/丽水-漫展信息.xlsx
+++ b/漫展信息/丽水-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +477,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -512,15 +507,12 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H2" t="n">
         <v>45</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78294&amp;msource=Msearch_colligation</t>
         </is>
@@ -557,10 +549,7 @@
       <c r="H3" t="n">
         <v>50</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80714&amp;msource=Msearch_colligation</t>
         </is>
@@ -597,10 +586,7 @@
       <c r="H4" t="n">
         <v>45</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81032&amp;msource=Msearch_colligation</t>
         </is>
@@ -632,15 +618,12 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H5" t="n">
         <v>45</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79437&amp;msource=Msearch_colligation</t>
         </is>
@@ -658,7 +641,6 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -672,7 +654,6 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -691,7 +672,6 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -704,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,11 +733,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -774,7 +749,6 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -788,7 +762,6 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -807,7 +780,6 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -820,7 +792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,11 +841,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -890,7 +857,6 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -904,7 +870,6 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -923,7 +888,6 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -936,7 +900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,11 +949,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -1020,15 +979,12 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H2" t="n">
         <v>45</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78294&amp;msource=Msearch_colligation</t>
         </is>
@@ -1065,10 +1021,7 @@
       <c r="H3" t="n">
         <v>50</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80714&amp;msource=Msearch_colligation</t>
         </is>
@@ -1105,10 +1058,7 @@
       <c r="H4" t="n">
         <v>45</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81032&amp;msource=Msearch_colligation</t>
         </is>
@@ -1140,15 +1090,12 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H5" t="n">
         <v>45</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79437&amp;msource=Msearch_colligation</t>
         </is>
@@ -1166,7 +1113,6 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1180,7 +1126,6 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1199,7 +1144,6 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
